--- a/Leetcode all sheet/Coding Decoded Backtracking SDE sheet.xlsx
+++ b/Leetcode all sheet/Coding Decoded Backtracking SDE sheet.xlsx
@@ -671,7 +671,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -927,7 +927,7 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -945,7 +945,7 @@
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="19" t="s">
